--- a/analysis/automated/results/probit_univariate_annotated.xlsx
+++ b/analysis/automated/results/probit_univariate_annotated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rcbpf0001.arrow.rothschildandco.ch\Home\RP116957\usrdat\Desktop\philip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F327CAD6-F257-4106-8E43-9632D2937896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BCA4E7-0E50-4F3C-968B-10E229900AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId4"/>
+    <pivotCache cacheId="15" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -505,6 +505,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5167,7 +5168,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5205,7 +5206,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9056,34 +9057,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>insured</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>learned_routes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>made_plan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>supplies</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>made_safer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>documents</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>alerts</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>documents</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>family_communication</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>insured</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>involved</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>learned_routes</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>made_plan</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>made_safer</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>practiced_drills</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>supplies</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9095,34 +9096,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>408.12721364170659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>407.60116936364909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>401.53769244136959</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>389.0712280336702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>370.70628313202019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>370.16469865012482</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>368.13528521462729</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>370.16469865012482</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>259.11687671432469</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>408.12721364170659</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>246.6110624264989</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>407.60116936364909</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>401.53769244136959</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>370.70628313202019</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>223.0219637328502</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>389.0712280336702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9163,34 +9164,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>insured</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>learned_routes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>made_plan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>supplies</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>made_safer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>documents</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>alerts</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>documents</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>family_communication</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>insured</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>involved</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>learned_routes</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>made_plan</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>made_safer</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>practiced_drills</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>supplies</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9202,34 +9203,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>483.96337491328569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>484.9797935828766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>488.40756439999569</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>465.78776129984118</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>453.14534063974531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>440.52920176972532</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>458.45724282860681</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>440.52920176972532</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>314.05451048265752</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>483.96337491328569</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>270.9399257087116</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>484.9797935828766</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>488.40756439999569</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>453.14534063974531</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>264.5150538711448</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>465.78776129984118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9270,34 +9271,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>insured</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>learned_routes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>made_plan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>supplies</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>made_safer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>documents</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>alerts</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>documents</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>family_communication</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>insured</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>involved</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>learned_routes</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>made_plan</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>made_safer</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>practiced_drills</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>supplies</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9309,34 +9310,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>414.22506356902443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>431.46962516514321</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>424.2890843273675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>413.27191881349142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>379.61776349508631</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>383.06605904452908</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>365.71069333774869</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>383.06605904452908</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>266.99434855823438</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>414.22506356902443</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>248.57072479496219</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>431.46962516514321</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>424.2890843273675</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>379.61776349508631</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>219.03149077062599</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>413.27191881349142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9377,34 +9378,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>insured</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>learned_routes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>made_plan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>supplies</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>made_safer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>documents</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>alerts</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>documents</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>family_communication</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>insured</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>involved</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>learned_routes</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>made_plan</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>made_safer</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>practiced_drills</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>supplies</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9416,34 +9417,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>384.04196610313511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>413.9388244306499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>406.27644836427987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>394.05656839531269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>369.52839220627072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>366.07714272100537</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>366.63232702954031</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>366.07714272100537</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>261.84608917264609</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>384.04196610313511</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>231.80890887186959</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>413.9388244306499</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>406.27644836427987</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>369.52839220627072</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>216.37368946208511</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>394.05656839531269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9500,7 +9501,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -10287,7 +10288,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$1</c15:sqref>
@@ -10362,7 +10363,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="0"/>
                     </c:ext>
@@ -10529,7 +10530,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-BB3D-4956-AAE3-8FFFB2C5608A}"/>
                   </c:ext>
@@ -10542,7 +10543,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$1</c15:sqref>
@@ -10617,7 +10618,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="0"/>
                     </c:ext>
@@ -10784,7 +10785,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-BB3D-4956-AAE3-8FFFB2C5608A}"/>
                   </c:ext>
@@ -10797,7 +10798,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$1</c15:sqref>
@@ -10872,7 +10873,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="0"/>
                     </c:ext>
@@ -11039,7 +11040,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-BB3D-4956-AAE3-8FFFB2C5608A}"/>
                   </c:ext>
@@ -11052,7 +11053,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$1</c15:sqref>
@@ -11127,7 +11128,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="0"/>
                     </c:ext>
@@ -11294,7 +11295,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-BB3D-4956-AAE3-8FFFB2C5608A}"/>
                   </c:ext>
@@ -25776,6 +25777,85 @@
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00439</cdr:x>
+      <cdr:y>0.01063</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.00439</cdr:x>
+      <cdr:y>0.01063</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="UpSlideExportSave" hidden="1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B8EDEA-DD83-B5EB-B70D-4C79EFAB85B1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
 
@@ -28257,7 +28337,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{633566F4-B93E-4D2C-9975-52FC3ABD3FD8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{633566F4-B93E-4D2C-9975-52FC3ABD3FD8}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
   <location ref="A3:F15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
@@ -28547,7 +28627,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{975B7EE1-E311-4619-BC3B-0997C150C4DB}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="29">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{975B7EE1-E311-4619-BC3B-0997C150C4DB}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="29">
   <location ref="A3:F15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
@@ -28567,7 +28647,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="11">
         <item x="8"/>
         <item x="1"/>
@@ -28581,6 +28661,18 @@
         <item x="4"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField showAll="0">
       <items count="120">
@@ -28718,19 +28810,7 @@
   </rowFields>
   <rowItems count="11">
     <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
     <i>
       <x v="5"/>
@@ -28739,13 +28819,25 @@
       <x v="6"/>
     </i>
     <i>
+      <x v="9"/>
+    </i>
+    <i>
       <x v="7"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="1"/>
     </i>
     <i>
-      <x v="9"/>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -29267,8 +29359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F7CCA3-34CC-4853-B627-2EEE591866DA}">
   <dimension ref="A3:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29657,8 +29749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C05634-2D67-4B02-A612-6B02BE693027}">
   <dimension ref="A3:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29815,202 +29907,202 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="B5" s="4">
-        <v>368.13528521462729</v>
+        <v>408.12721364170659</v>
       </c>
       <c r="C5" s="4">
-        <v>458.45724282860681</v>
+        <v>483.96337491328569</v>
       </c>
       <c r="D5" s="4">
-        <v>365.71069333774869</v>
+        <v>414.22506356902443</v>
       </c>
       <c r="E5" s="4">
-        <v>366.63232702954031</v>
+        <v>384.04196610313511</v>
       </c>
       <c r="F5" s="4">
-        <v>1558.9355484105231</v>
+        <v>1690.3576182271518</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B6" s="4">
-        <v>370.16469865012482</v>
+        <v>407.60116936364909</v>
       </c>
       <c r="C6" s="4">
-        <v>440.52920176972532</v>
+        <v>484.9797935828766</v>
       </c>
       <c r="D6" s="4">
-        <v>383.06605904452908</v>
+        <v>431.46962516514321</v>
       </c>
       <c r="E6" s="4">
-        <v>366.07714272100537</v>
+        <v>413.9388244306499</v>
       </c>
       <c r="F6" s="4">
-        <v>1559.8371021853848</v>
+        <v>1737.9894125423189</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B7" s="4">
-        <v>259.11687671432469</v>
+        <v>401.53769244136959</v>
       </c>
       <c r="C7" s="4">
-        <v>314.05451048265752</v>
+        <v>488.40756439999569</v>
       </c>
       <c r="D7" s="4">
-        <v>266.99434855823438</v>
+        <v>424.2890843273675</v>
       </c>
       <c r="E7" s="4">
-        <v>261.84608917264609</v>
+        <v>406.27644836427987</v>
       </c>
       <c r="F7" s="4">
-        <v>1102.0118249278626</v>
+        <v>1720.5107895330129</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="B8" s="4">
-        <v>408.12721364170659</v>
+        <v>389.0712280336702</v>
       </c>
       <c r="C8" s="4">
-        <v>483.96337491328569</v>
+        <v>465.78776129984118</v>
       </c>
       <c r="D8" s="4">
-        <v>414.22506356902443</v>
+        <v>413.27191881349142</v>
       </c>
       <c r="E8" s="4">
-        <v>384.04196610313511</v>
+        <v>394.05656839531269</v>
       </c>
       <c r="F8" s="4">
-        <v>1690.3576182271518</v>
+        <v>1662.1874765423154</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B9" s="4">
-        <v>246.6110624264989</v>
+        <v>370.70628313202019</v>
       </c>
       <c r="C9" s="4">
-        <v>270.9399257087116</v>
+        <v>453.14534063974531</v>
       </c>
       <c r="D9" s="4">
-        <v>248.57072479496219</v>
+        <v>379.61776349508631</v>
       </c>
       <c r="E9" s="4">
-        <v>231.80890887186959</v>
+        <v>369.52839220627072</v>
       </c>
       <c r="F9" s="4">
-        <v>997.9306218020422</v>
+        <v>1572.9977794731226</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="4">
-        <v>407.60116936364909</v>
+        <v>370.16469865012482</v>
       </c>
       <c r="C10" s="4">
-        <v>484.9797935828766</v>
+        <v>440.52920176972532</v>
       </c>
       <c r="D10" s="4">
-        <v>431.46962516514321</v>
+        <v>383.06605904452908</v>
       </c>
       <c r="E10" s="4">
-        <v>413.9388244306499</v>
+        <v>366.07714272100537</v>
       </c>
       <c r="F10" s="4">
-        <v>1737.9894125423189</v>
+        <v>1559.8371021853848</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" s="4">
-        <v>401.53769244136959</v>
+        <v>368.13528521462729</v>
       </c>
       <c r="C11" s="4">
-        <v>488.40756439999569</v>
+        <v>458.45724282860681</v>
       </c>
       <c r="D11" s="4">
-        <v>424.2890843273675</v>
+        <v>365.71069333774869</v>
       </c>
       <c r="E11" s="4">
-        <v>406.27644836427987</v>
+        <v>366.63232702954031</v>
       </c>
       <c r="F11" s="4">
-        <v>1720.5107895330129</v>
+        <v>1558.9355484105231</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B12" s="4">
-        <v>370.70628313202019</v>
+        <v>259.11687671432469</v>
       </c>
       <c r="C12" s="4">
-        <v>453.14534063974531</v>
+        <v>314.05451048265752</v>
       </c>
       <c r="D12" s="4">
-        <v>379.61776349508631</v>
+        <v>266.99434855823438</v>
       </c>
       <c r="E12" s="4">
-        <v>369.52839220627072</v>
+        <v>261.84608917264609</v>
       </c>
       <c r="F12" s="4">
-        <v>1572.9977794731226</v>
+        <v>1102.0118249278626</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B13" s="4">
-        <v>223.0219637328502</v>
+        <v>246.6110624264989</v>
       </c>
       <c r="C13" s="4">
-        <v>264.5150538711448</v>
+        <v>270.9399257087116</v>
       </c>
       <c r="D13" s="4">
-        <v>219.03149077062599</v>
+        <v>248.57072479496219</v>
       </c>
       <c r="E13" s="4">
-        <v>216.37368946208511</v>
+        <v>231.80890887186959</v>
       </c>
       <c r="F13" s="4">
-        <v>922.9421978367061</v>
+        <v>997.9306218020422</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B14" s="4">
-        <v>389.0712280336702</v>
+        <v>223.0219637328502</v>
       </c>
       <c r="C14" s="4">
-        <v>465.78776129984118</v>
+        <v>264.5150538711448</v>
       </c>
       <c r="D14" s="4">
-        <v>413.27191881349142</v>
+        <v>219.03149077062599</v>
       </c>
       <c r="E14" s="4">
-        <v>394.05656839531269</v>
+        <v>216.37368946208511</v>
       </c>
       <c r="F14" s="4">
-        <v>1662.1874765423154</v>
+        <v>922.9421978367061</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -30043,8 +30135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:A120"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/analysis/automated/results/probit_univariate_annotated.xlsx
+++ b/analysis/automated/results/probit_univariate_annotated.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rcbpf0001.arrow.rothschildandco.ch\Home\RP116957\usrdat\Desktop\philip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BCA4E7-0E50-4F3C-968B-10E229900AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFFC9ED-BB99-4493-B8B4-579B84A7F06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="R2" sheetId="3" r:id="rId1"/>
-    <sheet name="BIC" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="dydx" sheetId="4" r:id="rId1"/>
+    <sheet name="R2" sheetId="3" r:id="rId2"/>
+    <sheet name="BIC" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId4"/>
+    <pivotCache cacheId="21" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="155">
   <si>
     <t>Determinant</t>
   </si>
@@ -488,6 +489,9 @@
   <si>
     <t>Sum of pseudoR_2</t>
   </si>
+  <si>
+    <t>Sum of marginal_effect</t>
+  </si>
 </sst>
 </file>
 
@@ -571,6 +575,6276 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[probit_univariate_annotated.xlsx]dydx!PivotTable1</c:name>
+    <c:fmtId val="29"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="100" b="0" i="0" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Chart Title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF">
+                      <a:alpha val="0"/>
+                    </a:srgbClr>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF">
+                      <a:alpha val="0"/>
+                    </a:srgbClr>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF">
+                      <a:alpha val="0"/>
+                    </a:srgbClr>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF">
+                      <a:alpha val="0"/>
+                    </a:srgbClr>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF">
+                      <a:alpha val="0"/>
+                    </a:srgbClr>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF">
+                      <a:alpha val="0"/>
+                    </a:srgbClr>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF">
+                      <a:alpha val="0"/>
+                    </a:srgbClr>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF">
+                      <a:alpha val="0"/>
+                    </a:srgbClr>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF">
+                      <a:alpha val="0"/>
+                    </a:srgbClr>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF">
+                      <a:alpha val="0"/>
+                    </a:srgbClr>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="45"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="46"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="47"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="48"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="49"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="50"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="51"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="52"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="53"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="54"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="55"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="56"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="57"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="58"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="59"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="60"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="61"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="62"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="63"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="64"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="65"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="66"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="67"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="68"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="69"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="70"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="71"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="72"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="73"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="74"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="75"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="76"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:ea typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dydx!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>awareness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>dydx!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>alerts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>documents</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>family_communication</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>insured</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>involved</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>learned_routes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>made_plan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>made_safer</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>practiced_drills</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>supplies</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>dydx!$B$5:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.21126689717387889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18139107099650409</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13421750525241519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2174616460862592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12919093981106999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26024875061865688</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2316447138928788</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16629496947444519</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1074484633244524</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2691158013493295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F458-4F83-BE28-36B9B267ADFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dydx!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>experience</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>dydx!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>alerts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>documents</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>family_communication</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>insured</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>involved</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>learned_routes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>made_plan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>made_safer</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>practiced_drills</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>supplies</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>dydx!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1252468990477133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1209904247916162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4480851769859991E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1685148716236782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12531030101654819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2217845432878825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17284393514425669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12089348899684051</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.755741247888349E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24858168635986649</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F458-4F83-BE28-36B9B267ADFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dydx!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>floodzone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>dydx!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>alerts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>documents</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>family_communication</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>insured</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>involved</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>learned_routes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>made_plan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>made_safer</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>practiced_drills</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>supplies</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>dydx!$D$5:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.21836440738749671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1201655608249223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1008613834283095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19778938779337521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1184372089692583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17342293551857671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13090331194347671</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1233239901178302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11591137082212249</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19107502284778191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F458-4F83-BE28-36B9B267ADFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dydx!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>perception</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>dydx!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>alerts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>documents</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>family_communication</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>insured</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>involved</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>learned_routes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>made_plan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>made_safer</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>practiced_drills</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>supplies</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>dydx!$E$5:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.22778303857515569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.206479268069542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13122130270602919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3073914692600383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20462472877447291</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25037036070106289</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22348123750194129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17843369541712889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14528321326875571</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2682233455522765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F458-4F83-BE28-36B9B267ADFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1121642544"/>
+        <c:axId val="1121641464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1121642544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="979797"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1121641464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1121641464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="706E6C"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1121642544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="100" b="0" i="0" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Chart Title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="992E63"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:noFill/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFFFF">
+                        <a:alpha val="0"/>
+                      </a:srgbClr>
+                    </a:solidFill>
+                  </a14:hiddenFill>
+                </a:ext>
+              </a:extLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$C$120</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$A$7:$C$7,Sheet1!$A$17:$C$17,Sheet1!$A$27:$C$27,Sheet1!$A$37:$C$37,Sheet1!$A$47:$C$47,Sheet1!$A$56:$C$56)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>involved ~ perception</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>involved ~ awareness</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>involved ~ experience</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>involved ~ floodzone</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>involved ~ efficacy</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>involved ~ insured</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>involved</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>involved</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>involved</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>involved</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>involved</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>involved</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>perception</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>awareness</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>experience</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>floodzone</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>efficacy</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>insured</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$I$120</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$I$7,Sheet1!$I$17,Sheet1!$I$27,Sheet1!$I$37,Sheet1!$I$47,Sheet1!$I$56)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>231.80890887186959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>246.6110624264989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>270.9399257087116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>248.57072479496219</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240.8764696729277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>267.11778252648418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AEC4-498D-BEC7-850287CCE02E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1194094176"/>
+        <c:axId val="1194094536"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>effect</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="2E3E80"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                  <a:extLst>
+                    <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                      <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                        <a:noFill/>
+                      </a14:hiddenLine>
+                    </a:ext>
+                  </a:extLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                    <a:extLst>
+                      <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                        <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                          <a:solidFill>
+                            <a:srgbClr val="FFFFFF">
+                              <a:alpha val="0"/>
+                            </a:srgbClr>
+                          </a:solidFill>
+                        </a14:hiddenFill>
+                      </a:ext>
+                    </a:extLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:srgbClr val="000000"/>
+                          </a:solidFill>
+                          <a:latin typeface="Arial"/>
+                          <a:ea typeface="Arial"/>
+                          <a:cs typeface="Arial"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="de-DE"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="0"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$C$120</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$A$7:$C$7,Sheet1!$A$17:$C$17,Sheet1!$A$27:$C$27,Sheet1!$A$37:$C$37,Sheet1!$A$47:$C$47,Sheet1!$A$56:$C$56)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="6"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>involved ~ perception</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>involved ~ awareness</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>involved ~ experience</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>involved ~ floodzone</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>involved ~ efficacy</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>involved ~ insured</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>perception</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>awareness</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>experience</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>floodzone</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>efficacy</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>insured</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$D$2:$D$120</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$D$7,Sheet1!$D$17,Sheet1!$D$27,Sheet1!$D$37,Sheet1!$D$47,Sheet1!$D$56)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1.308025010135226</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.78093669819140266</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.8491503071104155</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.71146708501079925</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.87636603186551609</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.94543377514353388</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-AEC4-498D-BEC7-850287CCE02E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>p</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="5FA1AD"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                  <a:extLst>
+                    <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                      <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                        <a:noFill/>
+                      </a14:hiddenLine>
+                    </a:ext>
+                  </a:extLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                    <a:extLst>
+                      <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                        <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                          <a:solidFill>
+                            <a:srgbClr val="FFFFFF">
+                              <a:alpha val="0"/>
+                            </a:srgbClr>
+                          </a:solidFill>
+                        </a14:hiddenFill>
+                      </a:ext>
+                    </a:extLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:srgbClr val="000000"/>
+                          </a:solidFill>
+                          <a:latin typeface="Arial"/>
+                          <a:ea typeface="Arial"/>
+                          <a:cs typeface="Arial"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="de-DE"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="0"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$C$120</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$A$7:$C$7,Sheet1!$A$17:$C$17,Sheet1!$A$27:$C$27,Sheet1!$A$37:$C$37,Sheet1!$A$47:$C$47,Sheet1!$A$56:$C$56)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="6"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>involved ~ perception</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>involved ~ awareness</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>involved ~ experience</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>involved ~ floodzone</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>involved ~ efficacy</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>involved ~ insured</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>perception</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>awareness</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>experience</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>floodzone</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>efficacy</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>insured</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$E$2:$E$120</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$E$7,Sheet1!$E$17,Sheet1!$E$27,Sheet1!$E$37,Sheet1!$E$47,Sheet1!$E$56)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>5.5551748123353254E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.9823809943415518E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.4732036456534875E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7.6506593294810567E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.8096795787089952E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.0270153603549544E-8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-AEC4-498D-BEC7-850287CCE02E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>marginal_effect</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="ACBFB7"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                  <a:extLst>
+                    <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                      <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                        <a:noFill/>
+                      </a14:hiddenLine>
+                    </a:ext>
+                  </a:extLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                    <a:extLst>
+                      <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                        <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                          <a:solidFill>
+                            <a:srgbClr val="FFFFFF">
+                              <a:alpha val="0"/>
+                            </a:srgbClr>
+                          </a:solidFill>
+                        </a14:hiddenFill>
+                      </a:ext>
+                    </a:extLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:srgbClr val="000000"/>
+                          </a:solidFill>
+                          <a:latin typeface="Arial"/>
+                          <a:ea typeface="Arial"/>
+                          <a:cs typeface="Arial"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="de-DE"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="0"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$C$120</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$A$7:$C$7,Sheet1!$A$17:$C$17,Sheet1!$A$27:$C$27,Sheet1!$A$37:$C$37,Sheet1!$A$47:$C$47,Sheet1!$A$56:$C$56)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="6"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>involved ~ perception</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>involved ~ awareness</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>involved ~ experience</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>involved ~ floodzone</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>involved ~ efficacy</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>involved ~ insured</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>perception</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>awareness</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>experience</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>floodzone</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>efficacy</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>insured</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$F$2:$F$120</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$F$7,Sheet1!$F$17,Sheet1!$F$27,Sheet1!$F$37,Sheet1!$F$47,Sheet1!$F$56)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0.20462472877447291</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.12919093981106999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.12531030101654819</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.1184372089692583</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.14149316572266629</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.1373731892892594</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-AEC4-498D-BEC7-850287CCE02E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>pseudoR_2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="3D664A"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                  <a:extLst>
+                    <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                      <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                        <a:noFill/>
+                      </a14:hiddenLine>
+                    </a:ext>
+                  </a:extLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                    <a:extLst>
+                      <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                        <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                          <a:solidFill>
+                            <a:srgbClr val="FFFFFF">
+                              <a:alpha val="0"/>
+                            </a:srgbClr>
+                          </a:solidFill>
+                        </a14:hiddenFill>
+                      </a:ext>
+                    </a:extLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:srgbClr val="000000"/>
+                          </a:solidFill>
+                          <a:latin typeface="Arial"/>
+                          <a:ea typeface="Arial"/>
+                          <a:cs typeface="Arial"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="de-DE"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="0"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$C$120</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$A$7:$C$7,Sheet1!$A$17:$C$17,Sheet1!$A$27:$C$27,Sheet1!$A$37:$C$37,Sheet1!$A$47:$C$47,Sheet1!$A$56:$C$56)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="6"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>involved ~ perception</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>involved ~ awareness</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>involved ~ experience</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>involved ~ floodzone</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>involved ~ efficacy</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>involved ~ insured</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>perception</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>awareness</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>experience</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>floodzone</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>efficacy</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>insured</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$G$2:$G$120</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$G$7,Sheet1!$G$17,Sheet1!$G$27,Sheet1!$G$37,Sheet1!$G$47,Sheet1!$G$56)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0.29671548548204951</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.13246277513895091</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.1249679407266347</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9.9756221957427033E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.15379703183826571</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.1309326710677543</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-AEC4-498D-BEC7-850287CCE02E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>LLRp</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="A2AE66"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                  <a:extLst>
+                    <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                      <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                        <a:noFill/>
+                      </a14:hiddenLine>
+                    </a:ext>
+                  </a:extLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                    <a:extLst>
+                      <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                        <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                          <a:solidFill>
+                            <a:srgbClr val="FFFFFF">
+                              <a:alpha val="0"/>
+                            </a:srgbClr>
+                          </a:solidFill>
+                        </a14:hiddenFill>
+                      </a:ext>
+                    </a:extLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:srgbClr val="000000"/>
+                          </a:solidFill>
+                          <a:latin typeface="Arial"/>
+                          <a:ea typeface="Arial"/>
+                          <a:cs typeface="Arial"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="de-DE"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="0"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$2:$C$120</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$A$7:$C$7,Sheet1!$A$17:$C$17,Sheet1!$A$27:$C$27,Sheet1!$A$37:$C$37,Sheet1!$A$47:$C$47,Sheet1!$A$56:$C$56)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="6"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>involved ~ perception</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>involved ~ awareness</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>involved ~ experience</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>involved ~ floodzone</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>involved ~ efficacy</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>involved ~ insured</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>involved</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>perception</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>awareness</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>experience</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>floodzone</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>efficacy</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>insured</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$H$2:$H$120</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$H$7,Sheet1!$H$17,Sheet1!$H$27,Sheet1!$H$37,Sheet1!$H$47,Sheet1!$H$56)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1.1312714736312979E-8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.454669697188584E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6.551758399133296E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.8941183878134103E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.2272933694482531E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>9.061406844961585E-8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-AEC4-498D-BEC7-850287CCE02E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1194094176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="979797"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="750" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1194094536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1194094536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1194094176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5351,7 +11625,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9684,7 +15958,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11461,7 +17735,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12950,7 +19224,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14439,7 +20713,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -15856,7 +22130,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -17345,7 +23619,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -18834,1496 +25108,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="100" b="0" i="0" u="none">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Chart Title</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BIC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="992E63"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:noFill/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:extLst>
-                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                    <a:solidFill>
-                      <a:srgbClr val="FFFFFF">
-                        <a:alpha val="0"/>
-                      </a:srgbClr>
-                    </a:solidFill>
-                  </a14:hiddenFill>
-                </a:ext>
-              </a:extLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="Arial"/>
-                    <a:cs typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$C$120</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$A$7:$C$7,Sheet1!$A$17:$C$17,Sheet1!$A$27:$C$27,Sheet1!$A$37:$C$37,Sheet1!$A$47:$C$47,Sheet1!$A$56:$C$56)</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>involved ~ perception</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>involved ~ awareness</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>involved ~ experience</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>involved ~ floodzone</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>involved ~ efficacy</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>involved ~ insured</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>involved</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>involved</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>involved</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>involved</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>involved</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>involved</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>perception</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>awareness</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>experience</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>floodzone</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>efficacy</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>insured</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$I$2:$I$120</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$I$7,Sheet1!$I$17,Sheet1!$I$27,Sheet1!$I$37,Sheet1!$I$47,Sheet1!$I$56)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>231.80890887186959</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>246.6110624264989</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>270.9399257087116</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>248.57072479496219</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>240.8764696729277</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>267.11778252648418</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AEC4-498D-BEC7-850287CCE02E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1194094176"/>
-        <c:axId val="1194094536"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>effect</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:srgbClr val="2E3E80"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                  <a:extLst>
-                    <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                      <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                        <a:noFill/>
-                      </a14:hiddenLine>
-                    </a:ext>
-                  </a:extLst>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                    <a:extLst>
-                      <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                        <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                          <a:solidFill>
-                            <a:srgbClr val="FFFFFF">
-                              <a:alpha val="0"/>
-                            </a:srgbClr>
-                          </a:solidFill>
-                        </a14:hiddenFill>
-                      </a:ext>
-                    </a:extLst>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:srgbClr val="000000"/>
-                          </a:solidFill>
-                          <a:latin typeface="Arial"/>
-                          <a:ea typeface="Arial"/>
-                          <a:cs typeface="Arial"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="de-DE"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="0"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$2:$C$120</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$A$7:$C$7,Sheet1!$A$17:$C$17,Sheet1!$A$27:$C$27,Sheet1!$A$37:$C$37,Sheet1!$A$47:$C$47,Sheet1!$A$56:$C$56)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:multiLvlStrCache>
-                      <c:ptCount val="6"/>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>involved ~ perception</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>involved ~ awareness</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>involved ~ experience</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>involved ~ floodzone</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>involved ~ efficacy</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>involved ~ insured</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>perception</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>awareness</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>experience</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>floodzone</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>efficacy</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>insured</c:v>
-                        </c:pt>
-                      </c:lvl>
-                    </c:multiLvlStrCache>
-                  </c:multiLvlStrRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$D$2:$D$120</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$D$7,Sheet1!$D$17,Sheet1!$D$27,Sheet1!$D$37,Sheet1!$D$47,Sheet1!$D$56)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>1.308025010135226</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.78093669819140266</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.8491503071104155</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.71146708501079925</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.87636603186551609</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.94543377514353388</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-AEC4-498D-BEC7-850287CCE02E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>p</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:srgbClr val="5FA1AD"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                  <a:extLst>
-                    <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                      <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                        <a:noFill/>
-                      </a14:hiddenLine>
-                    </a:ext>
-                  </a:extLst>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                    <a:extLst>
-                      <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                        <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                          <a:solidFill>
-                            <a:srgbClr val="FFFFFF">
-                              <a:alpha val="0"/>
-                            </a:srgbClr>
-                          </a:solidFill>
-                        </a14:hiddenFill>
-                      </a:ext>
-                    </a:extLst>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:srgbClr val="000000"/>
-                          </a:solidFill>
-                          <a:latin typeface="Arial"/>
-                          <a:ea typeface="Arial"/>
-                          <a:cs typeface="Arial"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="de-DE"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="0"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$2:$C$120</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$A$7:$C$7,Sheet1!$A$17:$C$17,Sheet1!$A$27:$C$27,Sheet1!$A$37:$C$37,Sheet1!$A$47:$C$47,Sheet1!$A$56:$C$56)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:multiLvlStrCache>
-                      <c:ptCount val="6"/>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>involved ~ perception</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>involved ~ awareness</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>involved ~ experience</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>involved ~ floodzone</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>involved ~ efficacy</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>involved ~ insured</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>perception</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>awareness</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>experience</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>floodzone</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>efficacy</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>insured</c:v>
-                        </c:pt>
-                      </c:lvl>
-                    </c:multiLvlStrCache>
-                  </c:multiLvlStrRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$E$2:$E$120</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$E$7,Sheet1!$E$17,Sheet1!$E$27,Sheet1!$E$37,Sheet1!$E$47,Sheet1!$E$56)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>5.5551748123353254E-6</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>5.9823809943415518E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>7.4732036456534875E-7</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>7.6506593294810567E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2.8096795787089952E-6</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>8.0270153603549544E-8</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-AEC4-498D-BEC7-850287CCE02E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>marginal_effect</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:srgbClr val="ACBFB7"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                  <a:extLst>
-                    <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                      <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                        <a:noFill/>
-                      </a14:hiddenLine>
-                    </a:ext>
-                  </a:extLst>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                    <a:extLst>
-                      <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                        <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                          <a:solidFill>
-                            <a:srgbClr val="FFFFFF">
-                              <a:alpha val="0"/>
-                            </a:srgbClr>
-                          </a:solidFill>
-                        </a14:hiddenFill>
-                      </a:ext>
-                    </a:extLst>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:srgbClr val="000000"/>
-                          </a:solidFill>
-                          <a:latin typeface="Arial"/>
-                          <a:ea typeface="Arial"/>
-                          <a:cs typeface="Arial"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="de-DE"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="0"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$2:$C$120</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$A$7:$C$7,Sheet1!$A$17:$C$17,Sheet1!$A$27:$C$27,Sheet1!$A$37:$C$37,Sheet1!$A$47:$C$47,Sheet1!$A$56:$C$56)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:multiLvlStrCache>
-                      <c:ptCount val="6"/>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>involved ~ perception</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>involved ~ awareness</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>involved ~ experience</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>involved ~ floodzone</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>involved ~ efficacy</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>involved ~ insured</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>perception</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>awareness</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>experience</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>floodzone</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>efficacy</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>insured</c:v>
-                        </c:pt>
-                      </c:lvl>
-                    </c:multiLvlStrCache>
-                  </c:multiLvlStrRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$F$2:$F$120</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$F$7,Sheet1!$F$17,Sheet1!$F$27,Sheet1!$F$37,Sheet1!$F$47,Sheet1!$F$56)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>0.20462472877447291</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.12919093981106999</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.12531030101654819</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.1184372089692583</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.14149316572266629</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.1373731892892594</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-AEC4-498D-BEC7-850287CCE02E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>pseudoR_2</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:srgbClr val="3D664A"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                  <a:extLst>
-                    <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                      <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                        <a:noFill/>
-                      </a14:hiddenLine>
-                    </a:ext>
-                  </a:extLst>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                    <a:extLst>
-                      <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                        <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                          <a:solidFill>
-                            <a:srgbClr val="FFFFFF">
-                              <a:alpha val="0"/>
-                            </a:srgbClr>
-                          </a:solidFill>
-                        </a14:hiddenFill>
-                      </a:ext>
-                    </a:extLst>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:srgbClr val="000000"/>
-                          </a:solidFill>
-                          <a:latin typeface="Arial"/>
-                          <a:ea typeface="Arial"/>
-                          <a:cs typeface="Arial"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="de-DE"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="0"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$2:$C$120</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$A$7:$C$7,Sheet1!$A$17:$C$17,Sheet1!$A$27:$C$27,Sheet1!$A$37:$C$37,Sheet1!$A$47:$C$47,Sheet1!$A$56:$C$56)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:multiLvlStrCache>
-                      <c:ptCount val="6"/>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>involved ~ perception</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>involved ~ awareness</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>involved ~ experience</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>involved ~ floodzone</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>involved ~ efficacy</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>involved ~ insured</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>perception</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>awareness</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>experience</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>floodzone</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>efficacy</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>insured</c:v>
-                        </c:pt>
-                      </c:lvl>
-                    </c:multiLvlStrCache>
-                  </c:multiLvlStrRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$G$2:$G$120</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$G$7,Sheet1!$G$17,Sheet1!$G$27,Sheet1!$G$37,Sheet1!$G$47,Sheet1!$G$56)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>0.29671548548204951</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.13246277513895091</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.1249679407266347</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>9.9756221957427033E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.15379703183826571</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.1309326710677543</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-AEC4-498D-BEC7-850287CCE02E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>LLRp</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:srgbClr val="A2AE66"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                  <a:extLst>
-                    <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                      <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                        <a:noFill/>
-                      </a14:hiddenLine>
-                    </a:ext>
-                  </a:extLst>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                    <a:extLst>
-                      <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                        <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                          <a:solidFill>
-                            <a:srgbClr val="FFFFFF">
-                              <a:alpha val="0"/>
-                            </a:srgbClr>
-                          </a:solidFill>
-                        </a14:hiddenFill>
-                      </a:ext>
-                    </a:extLst>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:srgbClr val="000000"/>
-                          </a:solidFill>
-                          <a:latin typeface="Arial"/>
-                          <a:ea typeface="Arial"/>
-                          <a:cs typeface="Arial"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="de-DE"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="0"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:multiLvlStrRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$A$2:$C$120</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$A$7:$C$7,Sheet1!$A$17:$C$17,Sheet1!$A$27:$C$27,Sheet1!$A$37:$C$37,Sheet1!$A$47:$C$47,Sheet1!$A$56:$C$56)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:multiLvlStrCache>
-                      <c:ptCount val="6"/>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>involved ~ perception</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>involved ~ awareness</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>involved ~ experience</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>involved ~ floodzone</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>involved ~ efficacy</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>involved ~ insured</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>involved</c:v>
-                        </c:pt>
-                      </c:lvl>
-                      <c:lvl>
-                        <c:pt idx="0">
-                          <c:v>perception</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>awareness</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>experience</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>floodzone</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>efficacy</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>insured</c:v>
-                        </c:pt>
-                      </c:lvl>
-                    </c:multiLvlStrCache>
-                  </c:multiLvlStrRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Sheet1!$H$2:$H$120</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Sheet1!$H$7,Sheet1!$H$17,Sheet1!$H$27,Sheet1!$H$37,Sheet1!$H$47,Sheet1!$H$56)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
-                      <c:pt idx="0">
-                        <c:v>1.1312714736312979E-8</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2.454669697188584E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>6.551758399133296E-7</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>6.8941183878134103E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1.2272933694482531E-6</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>9.061406844961585E-8</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-AEC4-498D-BEC7-850287CCE02E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1194094176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:srgbClr val="979797"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:noFill/>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="750" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1194094536"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1194094536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:extLst>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:noFill/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1194094176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="900">
-          <a:latin typeface="Arial"/>
-          <a:ea typeface="Arial"/>
-          <a:cs typeface="Arial"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -20684,6 +25509,509 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -25230,7 +30558,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6711BA07-3774-44DC-BA04-2CA301E65CC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761D84D9-DAD3-4AD8-A109-B18E11C2C9AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25667,7 +30995,439 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01111</cdr:x>
+      <cdr:y>0.01852</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.01111</cdr:x>
+      <cdr:y>0.01852</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="#UpSlide#ChartHasBeenCopiedWithUpSlideActive#" hidden="1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8B5F96-048D-16EF-AD43-C48E2FD6CEF3}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01111</cdr:x>
+      <cdr:y>0.01852</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.01111</cdr:x>
+      <cdr:y>0.01852</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="UpSlideExportSave" hidden="1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC44B06D-EFD0-5304-D489-C817A6B7EF36}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01111</cdr:x>
+      <cdr:y>0.01852</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.01111</cdr:x>
+      <cdr:y>0.01852</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="#UpSlide#ChartHasBeenCopiedWithUpSlideActive#" hidden="1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8B5F96-048D-16EF-AD43-C48E2FD6CEF3}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01111</cdr:x>
+      <cdr:y>0.01852</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.01111</cdr:x>
+      <cdr:y>0.01852</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="UpSlideExportSave" hidden="1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC44B06D-EFD0-5304-D489-C817A6B7EF36}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01111</cdr:x>
+      <cdr:y>0.01852</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.01111</cdr:x>
+      <cdr:y>0.01852</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="#UpSlide#ChartHasBeenCopiedWithUpSlideActive#" hidden="1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5E4DEC-26E4-77A9-AA43-FDCAFA500DE8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01111</cdr:x>
+      <cdr:y>0.01852</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.01111</cdr:x>
+      <cdr:y>0.01852</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="#UpSlide#ChartHasBeenCopiedWithUpSlideActive#" hidden="1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5E4DEC-26E4-77A9-AA43-FDCAFA500DE8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>195263</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6711BA07-3774-44DC-BA04-2CA301E65CC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -25859,7 +31619,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -25902,7 +31662,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -26015,7 +31775,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -26282,282 +32042,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.01111</cdr:x>
-      <cdr:y>0.01852</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.01111</cdr:x>
-      <cdr:y>0.01852</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="#UpSlide#ChartHasBeenCopiedWithUpSlideActive#" hidden="1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8B5F96-048D-16EF-AD43-C48E2FD6CEF3}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="50800" y="50800"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.01111</cdr:x>
-      <cdr:y>0.01852</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.01111</cdr:x>
-      <cdr:y>0.01852</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="UpSlideExportSave" hidden="1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC44B06D-EFD0-5304-D489-C817A6B7EF36}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="50800" y="50800"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.01111</cdr:x>
-      <cdr:y>0.01852</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.01111</cdr:x>
-      <cdr:y>0.01852</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="#UpSlide#ChartHasBeenCopiedWithUpSlideActive#" hidden="1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8B5F96-048D-16EF-AD43-C48E2FD6CEF3}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="50800" y="50800"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.01111</cdr:x>
-      <cdr:y>0.01852</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.01111</cdr:x>
-      <cdr:y>0.01852</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="UpSlideExportSave" hidden="1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC44B06D-EFD0-5304-D489-C817A6B7EF36}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="50800" y="50800"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28337,7 +33821,285 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{633566F4-B93E-4D2C-9975-52FC3ABD3FD8}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43AE6EAE-A458-4CC5-894C-992E391A30B0}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
+  <location ref="A3:F15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="13">
+        <item h="1" x="6"/>
+        <item x="1"/>
+        <item h="1" x="9"/>
+        <item h="1" x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item h="1" x="10"/>
+        <item h="1" x="7"/>
+        <item h="1" x="5"/>
+        <item x="0"/>
+        <item h="1" x="11"/>
+        <item h="1" x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="8"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="120">
+        <item x="67"/>
+        <item x="18"/>
+        <item x="97"/>
+        <item x="48"/>
+        <item x="28"/>
+        <item x="38"/>
+        <item x="107"/>
+        <item x="77"/>
+        <item x="57"/>
+        <item x="8"/>
+        <item x="117"/>
+        <item x="87"/>
+        <item x="60"/>
+        <item x="11"/>
+        <item x="90"/>
+        <item x="41"/>
+        <item x="21"/>
+        <item x="31"/>
+        <item x="100"/>
+        <item x="70"/>
+        <item x="51"/>
+        <item x="1"/>
+        <item x="110"/>
+        <item x="80"/>
+        <item x="68"/>
+        <item x="19"/>
+        <item x="98"/>
+        <item x="49"/>
+        <item x="29"/>
+        <item x="39"/>
+        <item x="108"/>
+        <item x="78"/>
+        <item x="58"/>
+        <item x="9"/>
+        <item x="118"/>
+        <item x="88"/>
+        <item x="61"/>
+        <item x="12"/>
+        <item x="91"/>
+        <item x="42"/>
+        <item x="22"/>
+        <item x="32"/>
+        <item x="101"/>
+        <item x="71"/>
+        <item x="2"/>
+        <item x="111"/>
+        <item x="81"/>
+        <item x="64"/>
+        <item x="15"/>
+        <item x="94"/>
+        <item x="45"/>
+        <item x="25"/>
+        <item x="35"/>
+        <item x="104"/>
+        <item x="74"/>
+        <item x="54"/>
+        <item x="5"/>
+        <item x="114"/>
+        <item x="84"/>
+        <item x="62"/>
+        <item x="13"/>
+        <item x="92"/>
+        <item x="43"/>
+        <item x="23"/>
+        <item x="33"/>
+        <item x="102"/>
+        <item x="72"/>
+        <item x="52"/>
+        <item x="3"/>
+        <item x="112"/>
+        <item x="82"/>
+        <item x="65"/>
+        <item x="16"/>
+        <item x="95"/>
+        <item x="46"/>
+        <item x="26"/>
+        <item x="36"/>
+        <item x="105"/>
+        <item x="75"/>
+        <item x="55"/>
+        <item x="6"/>
+        <item x="115"/>
+        <item x="85"/>
+        <item x="59"/>
+        <item x="10"/>
+        <item x="89"/>
+        <item x="40"/>
+        <item x="20"/>
+        <item x="30"/>
+        <item x="99"/>
+        <item x="69"/>
+        <item x="50"/>
+        <item x="0"/>
+        <item x="109"/>
+        <item x="79"/>
+        <item x="66"/>
+        <item x="17"/>
+        <item x="96"/>
+        <item x="47"/>
+        <item x="27"/>
+        <item x="37"/>
+        <item x="106"/>
+        <item x="76"/>
+        <item x="56"/>
+        <item x="7"/>
+        <item x="116"/>
+        <item x="86"/>
+        <item x="63"/>
+        <item x="14"/>
+        <item x="93"/>
+        <item x="44"/>
+        <item x="24"/>
+        <item x="34"/>
+        <item x="103"/>
+        <item x="73"/>
+        <item x="53"/>
+        <item x="4"/>
+        <item x="113"/>
+        <item x="83"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of marginal_effect" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="29" format="73" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="29" format="74" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="29" format="75" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="29" format="76" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{633566F4-B93E-4D2C-9975-52FC3ABD3FD8}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
   <location ref="A3:F15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
@@ -28626,8 +34388,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{975B7EE1-E311-4619-BC3B-0997C150C4DB}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="29">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{975B7EE1-E311-4619-BC3B-0997C150C4DB}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="29">
   <location ref="A3:F15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
@@ -29356,6 +35118,392 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672015B8-C4DE-4FB1-B609-98DF5C8814A4}">
+  <dimension ref="A3:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="34" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="27" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="26" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="22" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="26" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="27" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="26" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="20" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="17" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="12" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="20" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="17" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.21126689717387889</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.1252468990477133</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.21836440738749671</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.22778303857515569</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.7826612421842446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.18139107099650409</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.1209904247916162</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.1201655608249223</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.206479268069542</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.62902632468258457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.13421750525241519</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8.4480851769859991E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.1008613834283095</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.13122130270602919</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.45078104315661383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.2174616460862592</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.1685148716236782</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.19778938779337521</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.3073914692600383</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.891157374763351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.12919093981106999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.12531030101654819</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.1184372089692583</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.20462472877447291</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.57756317857134931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.26024875061865688</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.2217845432878825</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.17342293551857671</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.25037036070106289</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.90582659012617894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.2316447138928788</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.17284393514425669</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.13090331194347671</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.22348123750194129</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.75887319848255341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.16629496947444519</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.12089348899684051</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.1233239901178302</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.17843369541712889</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.58894614400624479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.1074484633244524</v>
+      </c>
+      <c r="C13" s="4">
+        <v>8.755741247888349E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.11591137082212249</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.14528321326875571</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.45620045989421409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.2691158013493295</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.24858168635986649</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.19107502284778191</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.2682233455522765</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.97699585610925443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1.9082807579798899</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1.4762044145171456</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.4902545796531501</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.1432916598264029</v>
+      </c>
+      <c r="F15" s="4">
+        <v>7.0180314119765894</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F7CCA3-34CC-4853-B627-2EEE591866DA}">
   <dimension ref="A3:F15"/>
   <sheetViews>
@@ -29745,11 +35893,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C05634-2D67-4B02-A612-6B02BE693027}">
   <dimension ref="A3:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
@@ -30131,7 +36279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I120"/>
   <sheetViews>
